--- a/meeting/账号密码.xlsx
+++ b/meeting/账号密码.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="账号密码" sheetId="1" r:id="rId1"/>
-    <sheet name="上线流程" sheetId="2" r:id="rId2"/>
+    <sheet name="hosts" sheetId="3" r:id="rId2"/>
+    <sheet name="上线流程" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>popdesign 测试cdn上传 filezilla</t>
   </si>
@@ -47,7 +48,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npm run fresh.dist.prod  将打包后的fresh.min.js fresh.min.css fresh.min.js.map放到 7freshResource项目中的fresh下  在js文件夹中修改版本号2019resource.js文件</t>
+    <t>npm run fresh.dist.prod  将打包后的fresh.min.js fresh.min.css fresh.min.js.map放到 7freshResource项目中的fresh下  在js文件夹中resource.js文件修改版本号,jone上x-store 编译，提测，发布，确认上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># 7fresh ERP 首页改版
+# 7fresh本地
+# 最新开发全
+####################################################
+192.168.200.156 localtest.tower.jd.com
+127.0.0.1 venderm.sync.7fresh.com
+127.0.0.1 vender-p.7fresh.com
+127.0.0.1 venderm.man.7fresh.com
+#192.168.115.238 venderm.man.7fresh.com
+127.0.0.1 agreement.man.7fresh.com
+#127.0.0.1 apply-p.7fresh.com
+127.0.0.1 apply.man.7fresh.com
+127.0.0.1 apply.maschedulen.7fresh.com
+10.182.64.213 man.7fresh.com
+127.0.0.1 p.7fresh.com
+127.0.0.1 partner.7fresh.com
+#10.182.69.199 vender.schedule.7fresh.com
+127.0.0.1 vender.schedule.7fresh.com
+#oa
+#127.0.0.1 org.7fresh.com
+#127.0.0.1 oa-soa.7fresh.com
+#127.0.0.1 oa.7fresh.com wf.7fresh.com
+#10.182.47.152 oa.7fresh.com wf.7fresh.com
+192.168.49.196 oa.7fresh.com wf.7fresh.com
+10.182.33.228 oa-soa.7fresh.com
+#10.182.35.167 sso.7fresh.com
+10.182.83.99 auth.7fresh.com
+10.182.83.100 auth-soa.7fresh.com
+#评价
+10.182.69.202 comment.man.7fresh.com
+#退款
+10.182.77.92 man.refund.7fresh.com
+#交易
+192.168.38.254 web-ticket.7fresh.com
+192.168.62.239 web-event.7fresh.com
+192.168.32.87 web-afs.7fresh.com
+192.168.153.120 usertools.jd.com
+#大区组件需要
+192.168.56.27 shop.7fresh.com
+#192.168.102.144 static.360buyimg.com
+#shop 端登录
+192.168.153.99 authcode.jd.com passport.jd.com
+192.168.153.99 ssa.7fresh.com sso.jd.com
+10.182.24.241 partner.7fresh.com
+## jdq
+192.168.144.108 TEST-JDQ-144108.bdp.jd.local
+192.168.144.109 TEST-JDQ-144109.bdp.jd.local
+192.168.144.110 TEST-JDQ-144110.bdp.jd.local
+192.168.144.111 TEST-JDQ-144111.bdp.jd.local
+192.168.144.112 TEST-JDQ-144112.bdp.jd.local
+# 
+192.168.151.74 redis.local 
+0.0.0.0 account.jetbrains.com
+192.168.150.121 i.jsf.jd.com  #测试index服务地址
+192.168.150.61 cfs.cache.jd.local cfs.jim.jd.local
+#192.168.119.164 erp.7fresh.com
+127.0.0.1  erp.7fresh.com
+10.182.35.167 sso.7fresh.com
+192.168.122.228 oa-soa.7fresh.com
+192.168.49.196 oa.7fresh.com wf.7fresh.com
+10.182.46.5 org.7fresh.com
+#192.168.102.144 static.360buyimg.com
+192.168.116.104  org.7fresh.com
+#问题反馈测试环境
+10.182.47.152 oa.7fresh.com wf.7fresh.com
+10.182.35.167 sso.7fresh.com
+10.182.64.213 man.7fresh.com
+192.168.56.239 shop.7fresh.com
+10.182.96.144 test.itsv.7fresh.com
+#127.0.0.1 test.itsv.7fresh.com
+#图片上传
+192.168.150.54 upload.erp.360buyimg.local
+192.168.150.54 img30.360buyimg.com
+#问题返回预发和正式
+11.24.205.129 itsv.7fresh.com
+#搜索
+10.182.35.163 om.man.7fresh.com
+10.182.35.163 testom.man.7fresh.com
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># 7fresh ERP 首页改版
+# 7fresh本地
+# 最新开发全
+####################################################
+192.168.200.156 localtest.tower.jd.com
+127.0.0.1 venderm.sync.7fresh.com
+127.0.0.1 vender-p.7fresh.com
+127.0.0.1 venderm.man.7fresh.com
+#192.168.115.238 venderm.man.7fresh.com
+127.0.0.1 agreement.man.7fresh.com
+#127.0.0.1 apply-p.7fresh.com
+127.0.0.1 apply.man.7fresh.com
+127.0.0.1 apply.maschedulen.7fresh.com
+10.182.64.213 man.7fresh.com
+127.0.0.1 p.7fresh.com
+127.0.0.1 partner.7fresh.com
+#10.182.69.199 vender.schedule.7fresh.com
+127.0.0.1 vender.schedule.7fresh.com
+#oa
+#127.0.0.1 org.7fresh.com
+#127.0.0.1 oa-soa.7fresh.com
+#127.0.0.1 oa.7fresh.com wf.7fresh.com
+#10.182.47.152 oa.7fresh.com wf.7fresh.com
+192.168.49.196 oa.7fresh.com wf.7fresh.com
+10.182.33.228 oa-soa.7fresh.com
+#10.182.35.167 sso.7fresh.com
+10.182.83.99 auth.7fresh.com
+10.182.83.100 auth-soa.7fresh.com
+#评价
+10.182.69.202 comment.man.7fresh.com
+#退款
+10.182.77.92 man.refund.7fresh.com
+#交易
+192.168.38.254 web-ticket.7fresh.com
+192.168.62.239 web-event.7fresh.com
+192.168.32.87 web-afs.7fresh.com
+192.168.153.120 usertools.jd.com
+#大区组件需要
+192.168.56.27 shop.7fresh.com
+#192.168.102.144 static.360buyimg.com
+#shop 端登录
+192.168.153.99 authcode.jd.com passport.jd.com
+192.168.153.99 ssa.7fresh.com sso.jd.com
+10.182.24.241 partner.7fresh.com
+## jdq
+192.168.144.108 TEST-JDQ-144108.bdp.jd.local
+192.168.144.109 TEST-JDQ-144109.bdp.jd.local
+192.168.144.110 TEST-JDQ-144110.bdp.jd.local
+192.168.144.111 TEST-JDQ-144111.bdp.jd.local
+192.168.144.112 TEST-JDQ-144112.bdp.jd.local
+# 
+192.168.151.74 redis.local 
+0.0.0.0 account.jetbrains.com
+192.168.150.121 i.jsf.jd.com  #测试index服务地址
+192.168.150.61 cfs.cache.jd.local cfs.jim.jd.local
+#192.168.119.164 erp.7fresh.com
+127.0.0.1  erp.7fresh.com
+10.182.35.167 sso.7fresh.com
+192.168.122.228 oa-soa.7fresh.com
+192.168.49.196 oa.7fresh.com wf.7fresh.com
+10.182.46.5 org.7fresh.com
+#192.168.102.144 static.360buyimg.com
+192.168.116.104  org.7fresh.com
+#问题反馈测试环境
+10.182.47.152 oa.7fresh.com wf.7fresh.com
+10.182.35.167 sso.7fresh.com
+10.182.64.213 man.7fresh.com
+192.168.56.239 shop.7fresh.com
+10.182.96.144 test.itsv.7fresh.com
+#127.0.0.1 test.itsv.7fresh.com
+#图片上传
+192.168.150.54 upload.erp.360buyimg.local
+192.168.150.54 img30.360buyimg.com
+#问题返回预发和正式
+11.24.205.129 itsv.7fresh.com
+#搜索
+10.182.35.163 om.man.7fresh.com
+10.182.35.163 testom.man.7fresh.com
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -109,6 +274,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,7 +585,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -474,17 +642,45 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="60.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="145.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
